--- a/PerformanceData.xlsx
+++ b/PerformanceData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhill/Desktop/TEDBenchmarks-Csharp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5540DE3D-AC4F-4F4D-B080-C8720961D7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F396B7-CB73-DA4E-93C7-CEBD77E4C763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{357E71F0-B077-154B-B667-6DD004D5C26C}"/>
   </bookViews>
@@ -4406,15 +4406,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
